--- a/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
+++ b/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from IHE Format Code " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from hl7-document-for" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from HL7 Document For" r:id="rId5" sheetId="3"/>
     <sheet name="Include from DICOM" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
@@ -32,13 +32,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.3.6.1.4.1.19376.1.2.7.1</t>
+    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.3.6.1.4.1.19376.1.2.7.1</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,7 +68,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2020-07-23</t>
+    <t>2022-08-15</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -86,7 +86,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -113,7 +113,7 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>notSelectable</t>
+    <t>status</t>
   </si>
   <si>
     <t>=</t>
@@ -134,7 +134,7 @@
     <t>All codes</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/hl7-document-format-codes</t>
+    <t>http://terminology.hl7.org/CodeSystem/v3-HL7DocumentFormatCodes</t>
   </si>
   <si>
     <t>Concept</t>
@@ -268,10 +268,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -460,7 +460,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">

--- a/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
+++ b/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -110,13 +110,10 @@
     <t>BooleanType[false]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>=</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -126,12 +123,6 @@
   </si>
   <si>
     <t>http://ihe.net/fhir/ihe.formatcode.fhir/CodeSystem/formatcode</t>
-  </si>
-  <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v3-HL7DocumentFormatCodes</t>
@@ -431,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,40 +434,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
         <v>31</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>13</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -498,28 +477,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +520,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>24</v>
@@ -549,26 +528,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
+++ b/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Include from IHE Format Code " r:id="rId4" sheetId="2"/>
     <sheet name="Include from HL7 Document For" r:id="rId5" sheetId="3"/>
     <sheet name="Include from DICOM" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -32,13 +33,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.3.6.1.4.1.19376.1.2.7.1</t>
+    <t>OID:1.3.6.1.4.1.19376.1.2.7.1</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -80,7 +81,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>IHE (http://ihe.net)</t>
+  </si>
+  <si>
+    <t>IHE Secretary (secretary@ihe.net)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -138,6 +142,15 @@
   </si>
   <si>
     <t>http://dicom.nema.org/resources/ontology/DCM</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/StructureDefinition/Bundle-uv-ips</t>
+  </si>
+  <si>
+    <t>IPS (International Patient Summary)</t>
+  </si>
+  <si>
+    <t>urn:ietf:rfc:3986</t>
   </si>
 </sst>
 </file>
@@ -374,45 +387,45 @@
         <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -434,28 +447,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -477,28 +490,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -520,34 +533,83 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
+++ b/fhir/ihe.formatcode.fhir/ValueSet-formatcode.xlsx
@@ -7,10 +7,10 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from IHE Format Code " r:id="rId4" sheetId="2"/>
-    <sheet name="Include from HL7 Document For" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from DICOM" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -141,7 +141,7 @@
     <t>Key Object Selection Document</t>
   </si>
   <si>
-    <t>http://dicom.nema.org/resources/ontology/DCM</t>
+    <t>http://dicom.nema.org/resources/ontology/DCMUID</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/StructureDefinition/Bundle-uv-ips</t>
